--- a/documentacion/GANTT_proyecto.xlsx
+++ b/documentacion/GANTT_proyecto.xlsx
@@ -8,36 +8,306 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleru\Documents\GitHub\proyectoFinalDAM\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1878A7-B265-4C08-AAFC-B89833555BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5D0013-3557-4E36-A61E-804D51CA02CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="Inicio_del_proyecto">Hoja1!#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Tarea</t>
-  </si>
-  <si>
-    <t>Semana</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+  <si>
+    <t>Diseño</t>
+  </si>
+  <si>
+    <t>Desarrollo backend</t>
+  </si>
+  <si>
+    <t>Desarrollo frontend</t>
+  </si>
+  <si>
+    <t>Implementación y pruebas</t>
+  </si>
+  <si>
+    <t>Despliegue y seguimiento</t>
+  </si>
+  <si>
+    <t>Requisitos y análisis de viabilidad</t>
+  </si>
+  <si>
+    <t>Diseño de la arquitectura</t>
+  </si>
+  <si>
+    <t>Planificación</t>
+  </si>
+  <si>
+    <t>Diseño backend</t>
+  </si>
+  <si>
+    <t>Diseño frontend</t>
+  </si>
+  <si>
+    <t>DETALLE</t>
+  </si>
+  <si>
+    <t>Product owner</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>Lead manager</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Desarrollador frontend / fullstack</t>
+  </si>
+  <si>
+    <t>Desarrollador backend / fullstack</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>RECURSOS IMPLICADOS</t>
+  </si>
+  <si>
+    <t>LEYENDA</t>
+  </si>
+  <si>
+    <t>Devops</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Quality Analysts / Testers</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Soporte</t>
+  </si>
+  <si>
+    <t>Diseño base de datos</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Recoleccion de información, entrevistas, documentación sistema actual, evaluación de recursos, análisis de riesgos</t>
+  </si>
+  <si>
+    <t>Diseño de la arquitectura y selección de tecnologías y herramientas a emplear</t>
+  </si>
+  <si>
+    <t>Modelado de datos y tablas, diagramas ER</t>
+  </si>
+  <si>
+    <t>Diseño de estructura backend y modelos de datos</t>
+  </si>
+  <si>
+    <t>Diseño de intefaces, prototipado, definición de la navegación y usabilidad</t>
+  </si>
+  <si>
+    <t>Diseñador UI/UX</t>
+  </si>
+  <si>
+    <t>Desarrollo base de datos</t>
+  </si>
+  <si>
+    <t>Conexión base de datos</t>
+  </si>
+  <si>
+    <t>Desarrollo base springboot</t>
+  </si>
+  <si>
+    <t>Implementación lógica de negocio</t>
+  </si>
+  <si>
+    <t>TAREAS</t>
+  </si>
+  <si>
+    <t>Creación estructura de base de datos, testeo</t>
+  </si>
+  <si>
+    <t>Implementación DTOs, controladores, servicios, repositorio</t>
+  </si>
+  <si>
+    <t>Configuración conexión Mysql, pruebas</t>
+  </si>
+  <si>
+    <t>Adaptación de controladores a necesidades</t>
+  </si>
+  <si>
+    <t>Implementación de interfaz general</t>
+  </si>
+  <si>
+    <t>Desarrollo controladores y servicios</t>
+  </si>
+  <si>
+    <t>Integración con backend</t>
+  </si>
+  <si>
+    <t>Pruebas unitarias</t>
+  </si>
+  <si>
+    <t>Pruebas de integración y seguridad</t>
+  </si>
+  <si>
+    <t>Despliegue en producción</t>
+  </si>
+  <si>
+    <t>Seguimiento</t>
+  </si>
+  <si>
+    <t>Desarrollo de documentación</t>
+  </si>
+  <si>
+    <t>Desarrollo pantallas</t>
+  </si>
+  <si>
+    <t>Desarrollo login y estructura general, barra de navegación, botones comunes, aspecto estético</t>
+  </si>
+  <si>
+    <t>Desarrollo pantallas aplicación, desarrollo widgets, ubicación placeholders</t>
+  </si>
+  <si>
+    <t>Desarrollo lógica de datos de la aplicación, funcionalidades adicionales</t>
+  </si>
+  <si>
+    <t>Programación API, envío y recepción de datos, adaptación de formatos</t>
+  </si>
+  <si>
+    <t>Pruebas API, testeo vulnerabilidades, carga, rendimiento</t>
+  </si>
+  <si>
+    <t>Pruebas funcionales backend, frontend</t>
+  </si>
+  <si>
+    <t>Despliegue on-premise o cloud, publicación app cliente en google play</t>
+  </si>
+  <si>
+    <t>Desarrollo de detalle de la documentación de la aplicación, tanto de usuario como del código</t>
+  </si>
+  <si>
+    <t>DB, DF</t>
+  </si>
+  <si>
+    <t>PO, Dev, LM*</t>
+  </si>
+  <si>
+    <t>* En el resto de tareas, el Lead Manager o Lead Developer llevará un seguimiento del proyecto a nivel de gestión</t>
+  </si>
+  <si>
+    <t>DI, DF, PO</t>
+  </si>
+  <si>
+    <t>DI, DF</t>
+  </si>
+  <si>
+    <t>DF, DB</t>
+  </si>
+  <si>
+    <t>DF,DB</t>
+  </si>
+  <si>
+    <t>DB, DF, QA</t>
+  </si>
+  <si>
+    <t>Pruebas de usuario final</t>
+  </si>
+  <si>
+    <t>Pruebas generales de cara a uso de usuario final</t>
+  </si>
+  <si>
+    <t>QA, PO</t>
+  </si>
+  <si>
+    <t>Días</t>
+  </si>
+  <si>
+    <t>Vida util app</t>
+  </si>
+  <si>
+    <t>Monitoreo logs, bugs, actualizaciones, seguimiento</t>
+  </si>
+  <si>
+    <t>DO, SP</t>
+  </si>
+  <si>
+    <t>Coste salarial estimado</t>
+  </si>
+  <si>
+    <t>€/h</t>
+  </si>
+  <si>
+    <t>Lead time</t>
+  </si>
+  <si>
+    <t>días</t>
+  </si>
+  <si>
+    <t>Dedicación total (d)</t>
+  </si>
+  <si>
+    <t>Dedicación total (h)</t>
+  </si>
+  <si>
+    <t>Coste total</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>* Excluido mantenimiento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="d\-m\-yy;@"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +315,151 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -62,15 +467,356 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyFill="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyFill="0">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyFill="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="2" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="2" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="2" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="2" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="2" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="2" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Fecha" xfId="3" xr:uid="{ACB17AFF-8155-49CC-BF41-DAC27261A9A3}"/>
+    <cellStyle name="Moneda" xfId="4" builtinId="4"/>
+    <cellStyle name="Nombre" xfId="1" xr:uid="{FC06C113-1D33-43B9-9181-B8B18D7F8962}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Tarea" xfId="2" xr:uid="{AB8439E2-AAC3-4E19-B023-AB40E403CED7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -348,23 +1094,1389 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AD38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="34.921875" customWidth="1"/>
+    <col min="2" max="2" width="50.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="18" width="2.765625" customWidth="1"/>
+    <col min="19" max="19" width="5" customWidth="1"/>
+    <col min="20" max="25" width="2.765625" customWidth="1"/>
+    <col min="26" max="26" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="2.765625" customWidth="1"/>
+    <col min="30" max="30" width="11.765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
+    <row r="1" spans="1:30" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+    </row>
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="E2" s="13">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>3</v>
+      </c>
+      <c r="G2" s="13">
+        <v>4</v>
+      </c>
+      <c r="H2" s="13">
+        <v>5</v>
+      </c>
+      <c r="I2" s="13">
+        <v>6</v>
+      </c>
+      <c r="J2" s="13">
+        <v>7</v>
+      </c>
+      <c r="K2" s="13">
+        <v>8</v>
+      </c>
+      <c r="L2" s="13">
+        <v>9</v>
+      </c>
+      <c r="M2" s="13">
+        <v>10</v>
+      </c>
+      <c r="N2" s="13">
+        <v>11</v>
+      </c>
+      <c r="O2" s="13">
+        <v>12</v>
+      </c>
+      <c r="P2" s="13">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>14</v>
+      </c>
+      <c r="R2" s="13">
+        <v>15</v>
+      </c>
+      <c r="S2" s="13">
+        <v>16</v>
+      </c>
+      <c r="T2" s="13">
+        <v>17</v>
+      </c>
+      <c r="U2" s="13">
+        <v>18</v>
+      </c>
+      <c r="V2" s="13">
+        <v>19</v>
+      </c>
+      <c r="W2" s="13">
+        <v>20</v>
+      </c>
+      <c r="X2" s="13">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="13">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="13">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="13">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="13">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="13">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+    </row>
+    <row r="4" spans="1:30" ht="24.45" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+    </row>
+    <row r="5" spans="1:30" ht="24.45" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+    </row>
+    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+    </row>
+    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+    </row>
+    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+    </row>
+    <row r="12" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+    </row>
+    <row r="13" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+    </row>
+    <row r="14" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+    </row>
+    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+    </row>
+    <row r="16" spans="1:30" ht="24.45" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+    </row>
+    <row r="17" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+    </row>
+    <row r="18" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+    </row>
+    <row r="19" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+    </row>
+    <row r="20" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+    </row>
+    <row r="21" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+    </row>
+    <row r="22" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+    </row>
+    <row r="23" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+    </row>
+    <row r="24" spans="1:30" ht="24.45" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+    </row>
+    <row r="25" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+    </row>
+    <row r="26" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="14"/>
+    </row>
+    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="48"/>
+      <c r="AD27" s="48"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD28" s="15"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A29" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="58"/>
+      <c r="C29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29">
+        <f>2+3+2</f>
+        <v>7</v>
+      </c>
+      <c r="S29">
+        <f>+M29*8</f>
+        <v>56</v>
+      </c>
+      <c r="T29" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z29" s="59">
+        <f>+S29*D29</f>
+        <v>2520</v>
+      </c>
+      <c r="AC29">
+        <f>+AC2</f>
+        <v>26</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M30">
+        <f>2+0.1*24</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ref="S30:S36" si="0">+M30*8</f>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="T30" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z30" s="59">
+        <f t="shared" ref="Z30:Z36" si="1">+S30*D30</f>
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="T31" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z31" s="59">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+      <c r="M32">
+        <v>26</v>
+      </c>
+      <c r="S32">
+        <f>+M32*4</f>
+        <v>104</v>
+      </c>
+      <c r="T32" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z32" s="59">
+        <f t="shared" si="1"/>
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+      <c r="M33">
+        <v>30</v>
+      </c>
+      <c r="S33">
+        <f>+M33*4</f>
+        <v>120</v>
+      </c>
+      <c r="T33" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z33" s="59">
+        <f t="shared" si="1"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="T34" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z34" s="59">
+        <f t="shared" si="1"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="T35" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z35" s="59">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="T36" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z36" s="59">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A37" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z37" s="60">
+        <f>SUM(Z29:Z36)</f>
+        <v>15248</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A38" s="12" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:AD1"/>
+    <mergeCell ref="A29:B29"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>